--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -1,37 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF18C6F-2313-4A5B-BF37-E2E46D589CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Dia da semana</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Teperatura</t>
+  </si>
+  <si>
+    <t>Temperatura mínima</t>
+  </si>
+  <si>
+    <t>Temperatura máxima</t>
+  </si>
+  <si>
+    <t>Sensação térmica</t>
+  </si>
+  <si>
+    <t>Humidade do ar</t>
+  </si>
+  <si>
+    <t>Pressão atmosférica</t>
+  </si>
+  <si>
+    <t>Velocidade do vento</t>
+  </si>
+  <si>
+    <t>09\09\24</t>
+  </si>
+  <si>
+    <t>seg</t>
+  </si>
+  <si>
+    <t>14:27:06</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>algumas nuvens</t>
+  </si>
+  <si>
+    <t>Sobral</t>
+  </si>
+  <si>
+    <t>céu limpo</t>
+  </si>
+  <si>
+    <t>Acaraú</t>
+  </si>
+  <si>
+    <t>Itarema</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>14:28:20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +144,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,183 +468,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dia da semana</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cidade</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Teperatura</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura mínima</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura máxima</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Sensação térmica</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Humidade do ar</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pressão atmosférica</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Velocidade do vento</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>25\08\24</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dom</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12:33:00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Itarema</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>céu limpo</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I2" t="n">
-        <v>25</v>
-      </c>
-      <c r="J2" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>70</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>31.71</v>
+      </c>
+      <c r="H2">
+        <v>31.07</v>
+      </c>
+      <c r="I2">
+        <v>31.71</v>
+      </c>
+      <c r="J2">
+        <v>38.71</v>
+      </c>
+      <c r="K2">
+        <v>83</v>
+      </c>
+      <c r="L2">
         <v>1013</v>
       </c>
-      <c r="M2" t="n">
-        <v>7</v>
+      <c r="M2">
+        <v>9.77</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>06\09\24</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15:02:20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>céu limpo</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="J3" t="n">
-        <v>30.84</v>
-      </c>
-      <c r="K3" t="n">
-        <v>48</v>
-      </c>
-      <c r="L3" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>36.28</v>
+      </c>
+      <c r="H3">
+        <v>36.28</v>
+      </c>
+      <c r="I3">
+        <v>36.28</v>
+      </c>
+      <c r="J3">
+        <v>34.68</v>
+      </c>
+      <c r="K3">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>1011</v>
+      </c>
+      <c r="M3">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>30.77</v>
+      </c>
+      <c r="H4">
+        <v>30.77</v>
+      </c>
+      <c r="I4">
+        <v>30.77</v>
+      </c>
+      <c r="J4">
+        <v>32.43</v>
+      </c>
+      <c r="K4">
+        <v>51</v>
+      </c>
+      <c r="L4">
+        <v>1011</v>
+      </c>
+      <c r="M4">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>29.93</v>
+      </c>
+      <c r="H5">
+        <v>29.93</v>
+      </c>
+      <c r="I5">
+        <v>29.93</v>
+      </c>
+      <c r="J5">
+        <v>31.26</v>
+      </c>
+      <c r="K5">
+        <v>52</v>
+      </c>
+      <c r="L5">
         <v>1012</v>
       </c>
-      <c r="M3" t="n">
-        <v>7.72</v>
+      <c r="M5">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>31.71</v>
+      </c>
+      <c r="H6">
+        <v>31.07</v>
+      </c>
+      <c r="I6">
+        <v>31.71</v>
+      </c>
+      <c r="J6">
+        <v>38.71</v>
+      </c>
+      <c r="K6">
+        <v>83</v>
+      </c>
+      <c r="L6">
+        <v>1013</v>
+      </c>
+      <c r="M6">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>36.28</v>
+      </c>
+      <c r="H7">
+        <v>36.28</v>
+      </c>
+      <c r="I7">
+        <v>36.28</v>
+      </c>
+      <c r="J7">
+        <v>34.68</v>
+      </c>
+      <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>1011</v>
+      </c>
+      <c r="M7">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>30.77</v>
+      </c>
+      <c r="H8">
+        <v>30.77</v>
+      </c>
+      <c r="I8">
+        <v>30.77</v>
+      </c>
+      <c r="J8">
+        <v>32.43</v>
+      </c>
+      <c r="K8">
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <v>1011</v>
+      </c>
+      <c r="M8">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>29.93</v>
+      </c>
+      <c r="H9">
+        <v>29.93</v>
+      </c>
+      <c r="I9">
+        <v>29.93</v>
+      </c>
+      <c r="J9">
+        <v>31.26</v>
+      </c>
+      <c r="K9">
+        <v>52</v>
+      </c>
+      <c r="L9">
+        <v>1012</v>
+      </c>
+      <c r="M9">
+        <v>9.6999999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,10 +904,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -957,10 +955,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1010,10 +1006,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1063,10 +1057,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1113,6 +1105,218 @@
       </c>
       <c r="M13" t="n">
         <v>9.51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12\09\24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13:32:57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>82</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M14" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12\09\24</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13:32:57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="H15" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="I15" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="J15" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="K15" t="n">
+        <v>25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12\09\24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13:32:57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="I16" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="J16" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>58</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12\09\24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13:32:57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="H17" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="J17" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="K17" t="n">
+        <v>58</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M17" t="n">
+        <v>9.77</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,10 +1108,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1161,10 +1159,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1214,10 +1210,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1267,10 +1261,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1317,6 +1309,218 @@
       </c>
       <c r="M17" t="n">
         <v>9.77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13\09\24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13:53:13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>84</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>13\09\24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13:53:13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>34.63</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>13\09\24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13:53:13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="H20" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="J20" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="K20" t="n">
+        <v>52</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>13\09\24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13:53:13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="K21" t="n">
+        <v>52</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.869999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,10 +1312,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1365,10 +1363,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1418,10 +1414,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1471,10 +1465,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1521,6 +1513,218 @@
       </c>
       <c r="M21" t="n">
         <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14\09\24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12:12:58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J22" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="K22" t="n">
+        <v>76</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1014</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14\09\24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12:12:58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="H23" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="I23" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="J23" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14\09\24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12:12:58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="I24" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="J24" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="K24" t="n">
+        <v>50</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>14\09\24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12:12:58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="I25" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="J25" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="K25" t="n">
+        <v>48</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.77</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1516,10 +1516,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1569,10 +1567,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1622,10 +1618,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1675,10 +1669,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1725,6 +1717,218 @@
       </c>
       <c r="M25" t="n">
         <v>8.77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>15\09\24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14:35:01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="H26" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="I26" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J26" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="K26" t="n">
+        <v>94</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>15\09\24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14:35:01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>37.52</v>
+      </c>
+      <c r="H27" t="n">
+        <v>37.52</v>
+      </c>
+      <c r="I27" t="n">
+        <v>37.52</v>
+      </c>
+      <c r="J27" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="K27" t="n">
+        <v>19</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>15\09\24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14:35:01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="H28" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="J28" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="K28" t="n">
+        <v>59</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>15\09\24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14:35:01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="H29" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="K29" t="n">
+        <v>59</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.710000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1720,10 +1720,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1773,10 +1771,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1826,10 +1822,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1879,10 +1873,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1929,6 +1921,830 @@
       </c>
       <c r="M29" t="n">
         <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16\09\24</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13:22:11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="H30" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="I30" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="J30" t="n">
+        <v>38.71</v>
+      </c>
+      <c r="K30" t="n">
+        <v>74</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1014</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16\09\24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13:22:11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>36.66</v>
+      </c>
+      <c r="H31" t="n">
+        <v>36.66</v>
+      </c>
+      <c r="I31" t="n">
+        <v>36.66</v>
+      </c>
+      <c r="J31" t="n">
+        <v>35.96</v>
+      </c>
+      <c r="K31" t="n">
+        <v>25</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16\09\24</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13:22:11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="H32" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="I32" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="J32" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16\09\24</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13:22:11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="K33" t="n">
+        <v>50</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17\09\24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14:08:40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H34" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="J34" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K34" t="n">
+        <v>61</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17\09\24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14:08:40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="H35" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="I35" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="J35" t="n">
+        <v>35.46</v>
+      </c>
+      <c r="K35" t="n">
+        <v>20</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>17\09\24</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14:08:40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="H36" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="I36" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="J36" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="K36" t="n">
+        <v>56</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M36" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>17\09\24</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14:08:40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="H37" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="I37" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="J37" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="K37" t="n">
+        <v>55</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M37" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18\09\24</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13:19:45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="H38" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="I38" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="J38" t="n">
+        <v>38.71</v>
+      </c>
+      <c r="K38" t="n">
+        <v>89</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>18\09\24</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13:19:45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="H39" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="I39" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="J39" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="K39" t="n">
+        <v>24</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>18\09\24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13:19:45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="H40" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="I40" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="J40" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="K40" t="n">
+        <v>50</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M40" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>18\09\24</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13:19:45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="H41" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="J41" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="K41" t="n">
+        <v>49</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M41" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>23\09\24</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16:49:57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H42" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="I42" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="J42" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="K42" t="n">
+        <v>58</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23\09\24</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16:49:57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="H43" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="I43" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="J43" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="K43" t="n">
+        <v>24</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>23\09\24</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16:49:57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="H44" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="I44" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="J44" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="K44" t="n">
+        <v>67</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>23\09\24</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16:49:57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="H45" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="I45" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="J45" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="K45" t="n">
+        <v>71</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M45" t="n">
+        <v>8.279999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2536,10 +2536,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2589,10 +2587,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2642,10 +2638,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2695,10 +2689,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2745,6 +2737,1238 @@
       </c>
       <c r="M45" t="n">
         <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>24\09\24</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13:26:27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H46" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="J46" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K46" t="n">
+        <v>61</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>24\09\24</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13:26:27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="H47" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="I47" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="J47" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="K47" t="n">
+        <v>26</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>24\09\24</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13:26:27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="H48" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="J48" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="K48" t="n">
+        <v>54</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M48" t="n">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>24\09\24</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13:26:27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="I49" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="J49" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="K49" t="n">
+        <v>55</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>25\09\24</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14:17:42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H50" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="J50" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K50" t="n">
+        <v>61</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M50" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>25\09\24</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14:17:42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="H51" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="I51" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="J51" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="K51" t="n">
+        <v>23</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>25\09\24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14:17:42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="H52" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="I52" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="J52" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>58</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M52" t="n">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>25\09\24</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14:17:42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="H53" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="I53" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="J53" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="K53" t="n">
+        <v>57</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>26\09\24</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14:27:32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="H54" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="I54" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="K54" t="n">
+        <v>76</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M54" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>26\09\24</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14:27:32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="H55" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="I55" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="J55" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="K55" t="n">
+        <v>25</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>26\09\24</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>14:27:32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="H56" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="J56" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="K56" t="n">
+        <v>60</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M56" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>26\09\24</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>14:27:32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="H57" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="J57" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K57" t="n">
+        <v>59</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>27\09\24</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14:26:12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H58" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="J58" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="K58" t="n">
+        <v>65</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M58" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>27\09\24</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>14:26:12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>37.58</v>
+      </c>
+      <c r="H59" t="n">
+        <v>37.58</v>
+      </c>
+      <c r="I59" t="n">
+        <v>37.58</v>
+      </c>
+      <c r="J59" t="n">
+        <v>37.54</v>
+      </c>
+      <c r="K59" t="n">
+        <v>26</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>27\09\24</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14:26:12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="H60" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="I60" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="K60" t="n">
+        <v>60</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>27\09\24</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14:26:12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="K61" t="n">
+        <v>59</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M61" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>29\09\24</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>13:48:10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="H62" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="I62" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="J62" t="n">
+        <v>38.71</v>
+      </c>
+      <c r="K62" t="n">
+        <v>95</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M62" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>29\09\24</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13:48:10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="H63" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="I63" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="J63" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="K63" t="n">
+        <v>26</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1007</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>29\09\24</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>13:48:10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="H64" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="I64" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="J64" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="K64" t="n">
+        <v>55</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M64" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>29\09\24</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>13:48:10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="H65" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="I65" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="J65" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="K65" t="n">
+        <v>55</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M65" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>30\09\24</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>14:32:12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="H66" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="I66" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J66" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="K66" t="n">
+        <v>58</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>30\09\24</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>14:32:12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>37.87</v>
+      </c>
+      <c r="H67" t="n">
+        <v>37.87</v>
+      </c>
+      <c r="I67" t="n">
+        <v>37.87</v>
+      </c>
+      <c r="J67" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="K67" t="n">
+        <v>24</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1006</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>30\09\24</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>14:32:12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="H68" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="J68" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="K68" t="n">
+        <v>60</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M68" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>30\09\24</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>14:32:12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="H69" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="I69" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="J69" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="K69" t="n">
+        <v>59</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M69" t="n">
+        <v>8.98</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3760,10 +3760,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
+      <c r="A66" s="1" t="n">
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3813,10 +3811,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="A67" s="1" t="n">
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3866,10 +3862,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="A68" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3919,10 +3913,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="A69" s="1" t="n">
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3969,6 +3961,1034 @@
       </c>
       <c r="M69" t="n">
         <v>8.98</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>03\10\24</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>16:12:38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H70" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="I70" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="J70" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K70" t="n">
+        <v>61</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M70" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>03\10\24</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>16:12:38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="H71" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="I71" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="J71" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="K71" t="n">
+        <v>23</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1007</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>03\10\24</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>16:12:38</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="H72" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="I72" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="J72" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="K72" t="n">
+        <v>69</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M72" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>03\10\24</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>16:12:38</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="H73" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="I73" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="K73" t="n">
+        <v>71</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M73" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>07\10\24</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>14:53:56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="H74" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="I74" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="J74" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="K74" t="n">
+        <v>93</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M74" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>07\10\24</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>14:53:56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="H75" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="I75" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="J75" t="n">
+        <v>37.47</v>
+      </c>
+      <c r="K75" t="n">
+        <v>22</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1007</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>07\10\24</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>14:53:56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="H76" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="J76" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="K76" t="n">
+        <v>64</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M76" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>07\10\24</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>14:53:56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="H77" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="J77" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="K77" t="n">
+        <v>62</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M77" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>08\10\24</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>12:09:14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="H78" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I78" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J78" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="K78" t="n">
+        <v>79</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1014</v>
+      </c>
+      <c r="M78" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>08\10\24</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>12:09:14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="H79" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="I79" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="J79" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="K79" t="n">
+        <v>33</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>08\10\24</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12:09:14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="H80" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="I80" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="J80" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="K80" t="n">
+        <v>54</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M80" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>08\10\24</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>12:09:14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H81" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I81" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="K81" t="n">
+        <v>50</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M81" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>09\10\24</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>14:16:57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="H82" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I82" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J82" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="K82" t="n">
+        <v>62</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>09\10\24</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>14:16:57</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="H83" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="I83" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="K83" t="n">
+        <v>23</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>09\10\24</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>14:16:57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="H84" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="I84" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="J84" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="K84" t="n">
+        <v>55</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M84" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>09\10\24</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>14:16:57</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="H85" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="J85" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="K85" t="n">
+        <v>55</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M85" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>14\10\24</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>14:16:15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="H86" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="I86" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J86" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="K86" t="n">
+        <v>98</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M86" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>14\10\24</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>14:16:15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="H87" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="I87" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="J87" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="K87" t="n">
+        <v>20</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>14\10\24</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>14:16:15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="H88" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="I88" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="K88" t="n">
+        <v>59</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M88" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>14\10\24</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>14:16:15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="H89" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I89" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="K89" t="n">
+        <v>59</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M89" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4780,10 +4780,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="A86" s="1" t="n">
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4833,10 +4831,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="A87" s="1" t="n">
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4886,10 +4882,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="A88" s="1" t="n">
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4939,10 +4933,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="A89" s="1" t="n">
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4989,6 +4981,626 @@
       </c>
       <c r="M89" t="n">
         <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>16\10\24</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>14:27:51</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="H90" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I90" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J90" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K90" t="n">
+        <v>51</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M90" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>16\10\24</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>14:27:51</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="H91" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="I91" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="J91" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="K91" t="n">
+        <v>28</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>16\10\24</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>14:27:51</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="H92" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="I92" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="J92" t="n">
+        <v>33.57</v>
+      </c>
+      <c r="K92" t="n">
+        <v>59</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M92" t="n">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>16\10\24</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>14:27:51</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="H93" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="J93" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="K93" t="n">
+        <v>57</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M93" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>19\10\24</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>10:54:57</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="H94" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I94" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J94" t="n">
+        <v>36.48</v>
+      </c>
+      <c r="K94" t="n">
+        <v>83</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M94" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>19\10\24</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10:54:57</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="H95" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="I95" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="J95" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="K95" t="n">
+        <v>36</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>19\10\24</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>10:54:57</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="H96" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="I96" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="J96" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="K96" t="n">
+        <v>54</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M96" t="n">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>19\10\24</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>10:54:57</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="H97" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="I97" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="J97" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="K97" t="n">
+        <v>53</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M97" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>21\10\24</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>14:13:29</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="H98" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="I98" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="J98" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="K98" t="n">
+        <v>77</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M98" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>21\10\24</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>14:13:29</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="H99" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="I99" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="J99" t="n">
+        <v>36.81</v>
+      </c>
+      <c r="K99" t="n">
+        <v>21</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>21\10\24</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>14:13:29</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="H100" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="I100" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="J100" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="K100" t="n">
+        <v>54</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M100" t="n">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>21\10\24</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>14:13:29</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="H101" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="I101" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="J101" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="K101" t="n">
+        <v>52</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M101" t="n">
+        <v>8.75</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5392,10 +5392,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="A98" s="1" t="n">
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5445,10 +5443,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="A99" s="1" t="n">
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5498,10 +5494,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="A100" s="1" t="n">
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5551,10 +5545,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="A101" s="1" t="n">
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5601,6 +5593,1034 @@
       </c>
       <c r="M101" t="n">
         <v>8.75</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>23\10\24</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>14:53:27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="H102" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I102" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J102" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="K102" t="n">
+        <v>58</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M102" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>23\10\24</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>14:53:27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>37.49</v>
+      </c>
+      <c r="H103" t="n">
+        <v>37.49</v>
+      </c>
+      <c r="I103" t="n">
+        <v>37.49</v>
+      </c>
+      <c r="J103" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="K103" t="n">
+        <v>22</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1007</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>23\10\24</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>14:53:27</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="H104" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="I104" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="J104" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="K104" t="n">
+        <v>61</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M104" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>23\10\24</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>14:53:27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="H105" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="I105" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="J105" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="K105" t="n">
+        <v>61</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M105" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>24\10\24</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>14:55:22</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="H106" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I106" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J106" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="K106" t="n">
+        <v>58</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M106" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>24\10\24</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>14:55:22</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="H107" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="I107" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="J107" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="K107" t="n">
+        <v>24</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1007</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>24\10\24</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>14:55:22</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="H108" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="I108" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="J108" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="K108" t="n">
+        <v>63</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M108" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>24\10\24</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>14:55:22</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="H109" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="I109" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="J109" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K109" t="n">
+        <v>64</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M109" t="n">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>25\10\24</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>15:00:43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H110" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="I110" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="J110" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="K110" t="n">
+        <v>65</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M110" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>25\10\24</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>15:00:43</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="H111" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="I111" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="J111" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="K111" t="n">
+        <v>29</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>25\10\24</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>15:00:43</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="H112" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="I112" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="J112" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="K112" t="n">
+        <v>61</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M112" t="n">
+        <v>8.949999999999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>25\10\24</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>15:00:43</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="H113" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="I113" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="J113" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="K113" t="n">
+        <v>61</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M113" t="n">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>01\11\24</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>15:01:11</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="H114" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I114" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J114" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="K114" t="n">
+        <v>58</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>01\11\24</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>15:01:11</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="H115" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="I115" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="J115" t="n">
+        <v>37.22</v>
+      </c>
+      <c r="K115" t="n">
+        <v>23</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1006</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>01\11\24</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>15:01:11</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="H116" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="I116" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="J116" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="K116" t="n">
+        <v>61</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M116" t="n">
+        <v>8.890000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>01\11\24</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>15:01:11</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="H117" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="I117" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="J117" t="n">
+        <v>31.08</v>
+      </c>
+      <c r="K117" t="n">
+        <v>61</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M117" t="n">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>05\11\24</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>14:18:33</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="H118" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I118" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J118" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="K118" t="n">
+        <v>58</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M118" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>05\11\24</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>14:18:33</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H119" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I119" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J119" t="n">
+        <v>36.85</v>
+      </c>
+      <c r="K119" t="n">
+        <v>22</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1007</v>
+      </c>
+      <c r="M119" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>05\11\24</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>14:18:33</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="H120" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="I120" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="J120" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K120" t="n">
+        <v>52</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M120" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>05\11\24</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>14:18:33</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="H121" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="I121" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="J121" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="K121" t="n">
+        <v>52</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M121" t="n">
+        <v>8.949999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6412,10 +6412,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
+      <c r="A118" s="1" t="n">
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6465,10 +6463,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
+      <c r="A119" s="1" t="n">
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6518,10 +6514,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
+      <c r="A120" s="1" t="n">
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6571,10 +6565,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
+      <c r="A121" s="1" t="n">
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -6621,6 +6613,626 @@
       </c>
       <c r="M121" t="n">
         <v>8.949999999999999</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>07\11\24</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>14:52:31</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="H122" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I122" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J122" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="K122" t="n">
+        <v>62</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M122" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>07\11\24</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>14:52:31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="H123" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="I123" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="J123" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>28</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1007</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>07\11\24</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>14:52:31</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="H124" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="I124" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="J124" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="K124" t="n">
+        <v>61</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M124" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>07\11\24</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>14:52:31</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>29</v>
+      </c>
+      <c r="H125" t="n">
+        <v>29</v>
+      </c>
+      <c r="I125" t="n">
+        <v>29</v>
+      </c>
+      <c r="J125" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="K125" t="n">
+        <v>60</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M125" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>09\11\24</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>10:29:05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="H126" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="I126" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="J126" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>58</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1013</v>
+      </c>
+      <c r="M126" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>09\11\24</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>10:29:05</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="H127" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="I127" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="J127" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="K127" t="n">
+        <v>41</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>09\11\24</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>10:29:05</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="H128" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="I128" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="J128" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="K128" t="n">
+        <v>57</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M128" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>09\11\24</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>10:29:05</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="H129" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="I129" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="J129" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="K129" t="n">
+        <v>57</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M129" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>11\11\24</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>12:09:19</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="H130" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="I130" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J130" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="K130" t="n">
+        <v>54</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M130" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>11\11\24</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>12:09:19</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="H131" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="I131" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="J131" t="n">
+        <v>36.41</v>
+      </c>
+      <c r="K131" t="n">
+        <v>30</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>11\11\24</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>12:09:19</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H132" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="I132" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="J132" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="K132" t="n">
+        <v>53</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M132" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>11\11\24</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>12:09:19</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="H133" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="I133" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="J133" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="K133" t="n">
+        <v>50</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1010</v>
+      </c>
+      <c r="M133" t="n">
+        <v>7.35</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8718,24 +8718,20 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
+      <c r="A146" s="1" t="n">
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>15/11/2024</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="C146" t="n">
+        <v>2024</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8781,24 +8777,20 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
+      <c r="A147" s="1" t="n">
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>15/11/2024</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="C147" t="n">
+        <v>2024</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8844,24 +8836,20 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
+      <c r="A148" s="1" t="n">
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>15/11/2024</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="C148" t="n">
+        <v>2024</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8907,24 +8895,20 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
+      <c r="A149" s="1" t="n">
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>15/11/2024</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="C149" t="n">
+        <v>2024</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8967,6 +8951,730 @@
       </c>
       <c r="O149" t="n">
         <v>7.09</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>10:39:23</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J150" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K150" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="L150" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="M150" t="n">
+        <v>58</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1012</v>
+      </c>
+      <c r="O150" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>10:39:23</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="J151" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="K151" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="L151" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="M151" t="n">
+        <v>31</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O151" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>10:39:23</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="J152" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="K152" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="L152" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="M152" t="n">
+        <v>54</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O152" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>sÃ¡b</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>10:39:23</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="J153" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="K153" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="L153" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="M153" t="n">
+        <v>53</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O153" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>11:43:11</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="J154" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K154" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="L154" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="M154" t="n">
+        <v>51</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O154" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>11:43:11</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="J155" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="K155" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="L155" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="M155" t="n">
+        <v>31</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1009</v>
+      </c>
+      <c r="O155" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>11:43:11</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="J156" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="K156" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="L156" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="M156" t="n">
+        <v>58</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1009</v>
+      </c>
+      <c r="O156" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>11:43:11</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="J157" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="K157" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="L157" t="n">
+        <v>33.57</v>
+      </c>
+      <c r="M157" t="n">
+        <v>55</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1009</v>
+      </c>
+      <c r="O157" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>10:14:58</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="J158" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K158" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="L158" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M158" t="n">
+        <v>55</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1012</v>
+      </c>
+      <c r="O158" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>10:14:58</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="J159" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="K159" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="L159" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="M159" t="n">
+        <v>41</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1011</v>
+      </c>
+      <c r="O159" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>10:14:58</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="J160" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K160" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="L160" t="n">
+        <v>35.36</v>
+      </c>
+      <c r="M160" t="n">
+        <v>57</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O160" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>10:14:58</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J161" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K161" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="L161" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="M161" t="n">
+        <v>55</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1011</v>
+      </c>
+      <c r="O161" t="n">
+        <v>8.51</v>
       </c>
     </row>
   </sheetData>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O161"/>
+  <dimension ref="A1:O184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9426,24 +9426,20 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
+      <c r="A158" s="1" t="n">
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>18/11/2024</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="C158" t="n">
+        <v>2024</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -9489,24 +9485,20 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
+      <c r="A159" s="1" t="n">
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>18/11/2024</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="C159" t="n">
+        <v>2024</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -9552,24 +9544,20 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
+      <c r="A160" s="1" t="n">
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>18/11/2024</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="C160" t="n">
+        <v>2024</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -9615,24 +9603,20 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
+      <c r="A161" s="1" t="n">
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>18/11/2024</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="C161" t="n">
+        <v>2024</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -9675,6 +9659,1379 @@
       </c>
       <c r="O161" t="n">
         <v>8.51</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>13:37:16</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J162" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="K162" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="L162" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="M162" t="n">
+        <v>62</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O162" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>13:37:16</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>36.73</v>
+      </c>
+      <c r="J163" t="n">
+        <v>36.73</v>
+      </c>
+      <c r="K163" t="n">
+        <v>36.73</v>
+      </c>
+      <c r="L163" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="M163" t="n">
+        <v>29</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1008</v>
+      </c>
+      <c r="O163" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>13:37:16</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>céu limpo</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J164" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K164" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L164" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="M164" t="n">
+        <v>57</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1009</v>
+      </c>
+      <c r="O164" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>13:37:16</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="J165" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="K165" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L165" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="M165" t="n">
+        <v>57</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O165" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>09:58:52</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J166" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="K166" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="L166" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="M166" t="n">
+        <v>58</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1014</v>
+      </c>
+      <c r="O166" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>09:58:52</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="J167" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="K167" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="L167" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="M167" t="n">
+        <v>46</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1013</v>
+      </c>
+      <c r="O167" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>09:58:52</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="J168" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="K168" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="L168" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="M168" t="n">
+        <v>55</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1012</v>
+      </c>
+      <c r="O168" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>09:58:52</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="J169" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="K169" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="L169" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="M169" t="n">
+        <v>54</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1013</v>
+      </c>
+      <c r="O169" t="n">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>11:14:37</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J170" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="K170" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="L170" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="M170" t="n">
+        <v>62</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1013</v>
+      </c>
+      <c r="O170" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>11:14:37</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="J171" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="K171" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="L171" t="n">
+        <v>35.02</v>
+      </c>
+      <c r="M171" t="n">
+        <v>32</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1011</v>
+      </c>
+      <c r="O171" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>11:14:37</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="J172" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="K172" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="L172" t="n">
+        <v>31.48</v>
+      </c>
+      <c r="M172" t="n">
+        <v>60</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1012</v>
+      </c>
+      <c r="O172" t="n">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>11:14:37</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="J173" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="K173" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="L173" t="n">
+        <v>31.66</v>
+      </c>
+      <c r="M173" t="n">
+        <v>57</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1012</v>
+      </c>
+      <c r="O173" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>11:25:03</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="J174" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K174" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="L174" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M174" t="n">
+        <v>58</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1013</v>
+      </c>
+      <c r="O174" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>11:25:03</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="J175" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="K175" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="L175" t="n">
+        <v>36.31</v>
+      </c>
+      <c r="M175" t="n">
+        <v>36</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1012</v>
+      </c>
+      <c r="O175" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>11:25:03</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="J176" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="K176" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="L176" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="M176" t="n">
+        <v>63</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1013</v>
+      </c>
+      <c r="O176" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>11:11:15</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="J177" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K177" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="L177" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="M177" t="n">
+        <v>66</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1014</v>
+      </c>
+      <c r="O177" t="n">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>11:11:15</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="J178" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="K178" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="L178" t="n">
+        <v>32.42</v>
+      </c>
+      <c r="M178" t="n">
+        <v>47</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1014</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>11:11:15</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J179" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K179" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L179" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="M179" t="n">
+        <v>60</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1014</v>
+      </c>
+      <c r="O179" t="n">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>novembro</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>seg</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>11:11:15</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>nublado</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="J180" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="K180" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="L180" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="M180" t="n">
+        <v>56</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1014</v>
+      </c>
+      <c r="O180" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>14:09:28</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="J181" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K181" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="L181" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M181" t="n">
+        <v>58</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1011</v>
+      </c>
+      <c r="O181" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>14:09:28</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>nuvens dispersas</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="J182" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K182" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="L182" t="n">
+        <v>36.81</v>
+      </c>
+      <c r="M182" t="n">
+        <v>23</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1009</v>
+      </c>
+      <c r="O182" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>14:09:28</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Acaraú</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="J183" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="K183" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="L183" t="n">
+        <v>33.63</v>
+      </c>
+      <c r="M183" t="n">
+        <v>53</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O183" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>ter</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>14:09:28</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Itarema</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>algumas nuvens</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="J184" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="K184" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="L184" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="M184" t="n">
+        <v>50</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1011</v>
+      </c>
+      <c r="O184" t="n">
+        <v>7.92</v>
       </c>
     </row>
   </sheetData>
